--- a/2000_Furusawa/data/processed/Ne.xlsx
+++ b/2000_Furusawa/data/processed/Ne.xlsx
@@ -207,7 +207,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -247,10 +247,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0807022831738377"/>
-          <c:y val="0.0431904868745793"/>
-          <c:w val="0.830457388290257"/>
-          <c:h val="0.915694413282477"/>
+          <c:x val="0.0807083647324793"/>
+          <c:y val="0.0431953326601593"/>
+          <c:w val="0.830369253956292"/>
+          <c:h val="0.915572758891507"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -300,12 +300,120 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.118</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.138</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.144</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>131.1459</c:v>
                 </c:pt>
@@ -337,51 +445,72 @@
                   <c:v>37.42708</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>36.85284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.45162</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>36.10445</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>33.26833</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>30.00686</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>28.64446</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.19609</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.67052</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>24.14033</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>20.65572</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>16.80139</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>13.29452</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>11.83084</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>8.576038</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
+                  <c:v>6.708083</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>4.741731</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -423,8 +552,31 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="28800">
+                <a:solidFill>
+                  <a:srgbClr val="ff420e"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -433,12 +585,120 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.118</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.138</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.144</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:f>Sheet1!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>602.2254</c:v>
                 </c:pt>
@@ -470,51 +730,72 @@
                   <c:v>1607.384</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1522.558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1549.128</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1802.841</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>1699.897</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1834.219</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>1859.011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1970.326</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2102.286</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2197.466</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>2454.026</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>2996.563</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>3512.187</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>4065.615</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>5144.245</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
+                  <c:v>6458.796</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>8328.644</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -566,12 +847,120 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.118</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.138</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.144</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$27</c:f>
+              <c:f>Sheet1!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
@@ -603,32 +992,32 @@
                   <c:v>1570.476</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1590.544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1605.083</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1623.802</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>1728.492</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1867.186</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>1944.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2028.634</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2123.718</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2218.382</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="19">
                   <c:v/>
                 </c:pt>
@@ -645,9 +1034,30 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v/>
+                  <c:v>6560.393</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -655,11 +1065,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="251748"/>
-        <c:axId val="61045139"/>
+        <c:axId val="46943695"/>
+        <c:axId val="21579179"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251748"/>
+        <c:axId val="46943695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,12 +1125,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61045139"/>
+        <c:crossAx val="21579179"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61045139"/>
+        <c:axId val="21579179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +1195,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251748"/>
+        <c:crossAx val="46943695"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -838,15 +1248,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>640800</xdr:colOff>
+      <xdr:colOff>641160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>441720</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:colOff>441000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -854,8 +1264,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4704480" y="36000"/>
-        <a:ext cx="9554760" cy="6417720"/>
+        <a:off x="4704840" y="36000"/>
+        <a:ext cx="9553680" cy="7555320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -873,10 +1283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1022,109 +1432,207 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>36.85284</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1522.558</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1590.544</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>36.45162</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1549.128</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1605.083</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>1.94</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B14" s="2" t="n">
         <v>36.10445</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C14" s="2" t="n">
         <v>1802.841</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D14" s="2" t="n">
         <v>1623.802</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>30.00686</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>1834.219</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1867.186</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>24.14033</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>2197.466</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>2218.382</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>2.075</v>
+        <v>1.97</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>20.65572</v>
+        <v>33.26833</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>2454.026</v>
+        <v>1699.897</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1728.492</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>16.80139</v>
+        <v>30.00686</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>2996.563</v>
+        <v>1834.219</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1867.186</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>2.118</v>
+      <c r="A17" s="1" t="n">
+        <v>2.0125</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>13.29452</v>
+        <v>28.64446</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3512.187</v>
+        <v>1859.011</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1944.11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>11.83084</v>
+        <v>27.19609</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4065.615</v>
+        <v>1970.326</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>2028.634</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>2.138</v>
+      <c r="A19" s="1" t="n">
+        <v>2.0375</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>8.576038</v>
+        <v>25.67052</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>5144.245</v>
+        <v>2102.286</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>2123.718</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>24.14033</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2197.466</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>2218.382</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>20.65572</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2454.026</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>16.80139</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>2996.563</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>13.29452</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>3512.187</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>11.83084</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>4065.615</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2.138</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>8.576038</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>5144.245</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>6.708083</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>6458.796</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>6560.393</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>2.15</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B27" s="2" t="n">
         <v>4.741731</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C27" s="2" t="n">
         <v>8328.644</v>
       </c>
     </row>
